--- a/Data sheet.xlsx
+++ b/Data sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msztr\OneDrive\Documents\Milán_munkái\Iskola\Fizika\IYPT_2024\6. Non-contact Resistance\Mérések\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msztr\OneDrive\Documents\GitHub\VeriGudGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DBB8A4-0492-417F-9A38-DC4CAC546A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C25A3C-BF66-4B05-9EAF-8BE87C56F0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="28">
   <si>
     <t>Meas. no</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>no</t>
-  </si>
-  <si>
-    <t>95?</t>
   </si>
   <si>
     <t>hole 1</t>
@@ -482,7 +479,7 @@
   <dimension ref="B2:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -539,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>12</v>
@@ -583,7 +580,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="2">
         <v>40</v>
@@ -627,7 +624,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2">
         <v>40</v>
@@ -671,7 +668,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="2">
         <v>40</v>
@@ -695,7 +692,7 @@
         <v>110</v>
       </c>
       <c r="P6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
@@ -718,7 +715,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="2">
         <v>40</v>
@@ -742,7 +739,7 @@
         <v>110</v>
       </c>
       <c r="P7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
@@ -765,7 +762,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="2">
         <v>40</v>
@@ -789,7 +786,7 @@
         <v>110</v>
       </c>
       <c r="P8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
@@ -812,7 +809,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" s="2">
         <v>40</v>
@@ -836,7 +833,7 @@
         <v>110</v>
       </c>
       <c r="P9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
@@ -859,7 +856,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="2">
         <v>30</v>
@@ -903,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" s="2">
         <v>30</v>
@@ -924,10 +921,7 @@
         <v>64</v>
       </c>
       <c r="O11" s="2">
-        <v>100</v>
-      </c>
-      <c r="P11" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
@@ -950,7 +944,7 @@
         <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="2">
         <v>30</v>
@@ -971,10 +965,7 @@
         <v>64</v>
       </c>
       <c r="O12" s="2">
-        <v>100</v>
-      </c>
-      <c r="P12" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
@@ -995,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="2">
         <v>30</v>
@@ -1471,13 +1462,13 @@
         <v>3</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
